--- a/export.xlsx
+++ b/export.xlsx
@@ -4,20 +4,36 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="month" sheetId="1" r:id="rId1"/>
+    <sheet name="quarter" sheetId="2" r:id="rId5"/>
+    <sheet name="year" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello world.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>numpp</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -323,17 +339,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="B2">
-        <v>100</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
 </worksheet>
 </file>
 
@@ -341,15 +379,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
 </worksheet>
 </file>